--- a/assets/files/dados_gemelares_2.xlsx
+++ b/assets/files/dados_gemelares_2.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="dados_CTG" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="dicionario_CTG" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="dados" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="dicionario" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">dados_CTG!$A$1:$G$105</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">dados!$A$1:$G$105</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -51,38 +51,56 @@
     <t>Identificação do paciente</t>
   </si>
   <si>
-    <t>Grupo</t>
+    <t>EDPS_antes</t>
   </si>
   <si>
-    <t>Placebo</t>
+    <t>Escore no questionário de depressão EPDS avaliado no 1º trimestre gestacional</t>
   </si>
   <si>
-    <t>Progesterona</t>
+    <t>EDPS_depois</t>
   </si>
   <si>
-    <t>IG_Aval</t>
+    <t>Escore no questionário de depressão EPDS avaliado 4 meses pós-parto</t>
   </si>
   <si>
-    <t>Idade gestacional da CTG (em semanas)</t>
+    <t>Indicador de depressão antes do parto (a depender do valor de EDPS_antes)</t>
   </si>
   <si>
-    <t>MedidaColo</t>
+    <t>Sim (se EDPS_antes &gt;= 12)</t>
   </si>
   <si>
-    <t>Medida do colo observada no momento da CTG</t>
+    <t>Não (se EDPS_antes &lt; 12)</t>
   </si>
   <si>
-    <t>Num_contra_CTG</t>
+    <t>Indicador de depressão pós-parto (a depender do valor de EDPS_depois)</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de contrações </t>
+    <t>Sim (se EDPS_depois &gt;= 12)</t>
+  </si>
+  <si>
+    <t>Não (se EDPS_depois &lt; 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificação do grupo de amamentação </t>
+  </si>
+  <si>
+    <t>Acompanhamento (mentorias e acompanhamento das amamentações nas primeiras semanas)</t>
+  </si>
+  <si>
+    <t>Orientações sobre a amamentação durante o pré-natal</t>
+  </si>
+  <si>
+    <t>Nenhum acompanhamento ou orientação</t>
+  </si>
+  <si>
+    <t>Tempo de amamentação (em meses) de pelo menos um recém-nascido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -103,12 +121,16 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,90 +143,26 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -212,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -228,39 +186,29 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +833,7 @@
       <c r="F16" s="2">
         <v>2.0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>9.0</v>
       </c>
     </row>
@@ -960,7 +908,7 @@
       <c r="F19" s="2">
         <v>2.0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>4.0</v>
       </c>
     </row>
@@ -985,7 +933,7 @@
       <c r="F20" s="2">
         <v>2.0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>15.0</v>
       </c>
     </row>
@@ -1385,7 +1333,7 @@
       <c r="F36" s="2">
         <v>2.0</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>9.0</v>
       </c>
     </row>
@@ -1435,7 +1383,7 @@
       <c r="F38" s="2">
         <v>2.0</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>7.0</v>
       </c>
     </row>
@@ -1460,7 +1408,7 @@
       <c r="F39" s="2">
         <v>2.0</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>13.0</v>
       </c>
     </row>
@@ -11168,84 +11116,133 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="45.86"/>
+    <col customWidth="1" min="2" max="2" width="32.43"/>
+    <col customWidth="1" min="3" max="3" width="78.57"/>
     <col customWidth="1" min="4" max="26" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
     <row r="2" ht="13.5" customHeight="1"/>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="B6" s="12">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="B8" s="9">
         <v>1.0</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="B9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14" t="s">
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="B11" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="B12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="B14" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="B15" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="B16" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
     <row r="20" ht="12.75" customHeight="1"/>
